--- a/TasaDeforestaciónCamBosqueDptos.xlsx
+++ b/TasaDeforestaciónCamBosqueDptos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Doctorado\1.Seminario_I\Articulo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25C8F4D-B7A3-47DA-8BAF-B7D0E3737DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD77798-7ACF-4FBA-8610-68493AE79FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,34 +188,34 @@
     <t>2009-2010</t>
   </si>
   <si>
-    <t>SCBE</t>
+    <t>DEPARTAMENT</t>
   </si>
   <si>
-    <t>SD</t>
+    <t>PERIOD</t>
   </si>
   <si>
-    <t>SR</t>
+    <t>SFA</t>
   </si>
   <si>
-    <t>SSIN</t>
+    <t>DA</t>
   </si>
   <si>
-    <t>TDA</t>
+    <t>RA</t>
   </si>
   <si>
-    <t>PERIODO</t>
+    <t>AWI</t>
   </si>
   <si>
-    <t>DEPARTAMENTO</t>
+    <t>PAWI</t>
   </si>
   <si>
-    <t>DNSB</t>
+    <t>ADR</t>
   </si>
   <si>
-    <t>PSSIN</t>
+    <t>NDAC</t>
   </si>
   <si>
-    <t>CSBN</t>
+    <t>CFA</t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
   <dimension ref="A1:J562"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,31 +604,31 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>59</v>
